--- a/data/income_statement/1digit/size/M_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/M_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>M-Professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>M-Professional, scientific and technical activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4378579.009490001</v>
+        <v>4733383.685759999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5046324.7278</v>
+        <v>5496929.37994</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6211188.44668</v>
+        <v>6661955.797899999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6308905.517459999</v>
+        <v>7017389.854440001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6691440.63502</v>
+        <v>7378175.287889999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7214357.72791</v>
+        <v>8060367.114669999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7976510.706900001</v>
+        <v>9081747.592950001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8918397.26564</v>
+        <v>10118885.12138</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9308022.495829999</v>
+        <v>10809840.92906</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>17729699.58657</v>
+        <v>19559633.33424</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>19096370.92727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>22101627.22457999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>23880513.002</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4009609.321020001</v>
+        <v>4324107.74679</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4632949.195429999</v>
+        <v>5031464.503829999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5642276.85181</v>
+        <v>6042717.38341</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5816829.64053</v>
+        <v>6309386.197070001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6099461.443140001</v>
+        <v>6715200.7689</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6602190.31832</v>
+        <v>7359341.368319998</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7355199.21744</v>
+        <v>8348484.904579999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>8234868.1865</v>
+        <v>9313043.193639999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8473538.167649999</v>
+        <v>9844855.743620001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16155348.1072</v>
+        <v>17786987.48688</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>17179466.9103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19863425.98064</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>21251219.391</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>236661.2990000001</v>
+        <v>250942.05941</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>259259.34491</v>
+        <v>284242.21401</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>410639.51978</v>
+        <v>434868.82751</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>321440.2680699999</v>
+        <v>506359.6834</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>415324.48628</v>
+        <v>451543.20642</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>428079.85992</v>
+        <v>473456.31278</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>407025.22936</v>
+        <v>463427.0821400001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>466121.5396100001</v>
+        <v>523462.6311</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>600173.7016199998</v>
+        <v>661689.3259500001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1192113.36312</v>
+        <v>1290161.77088</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1466154.33059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1650229.16515</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1945919.114</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>132308.38947</v>
+        <v>158333.87956</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>154116.18746</v>
+        <v>181222.6621</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>158272.07509</v>
+        <v>184369.58698</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>170635.60886</v>
+        <v>201643.97397</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>176654.7056</v>
+        <v>211431.31257</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>184087.54967</v>
+        <v>227569.43357</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>214286.2601</v>
+        <v>269835.60623</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>217407.53953</v>
+        <v>282379.29664</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>234310.62656</v>
+        <v>303295.85949</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>382238.11625</v>
+        <v>482484.0764799999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>450749.68638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>587972.0787899999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>683374.497</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>31665.00632</v>
+        <v>36522.26655000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>28036.86828</v>
+        <v>32818.58946</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>32860.60328</v>
+        <v>37686.42745</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>29580.80004999999</v>
+        <v>33344.11826</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>30744.52204</v>
+        <v>35803.00175</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>32305.49466</v>
+        <v>41412.67842</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>40859.31348</v>
+        <v>50459.58229000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>43130.18503999999</v>
+        <v>54927.74935000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>52307.43415</v>
+        <v>71493.69287</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>116046.1627</v>
+        <v>135922.32442</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>130466.61092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>157795.25918</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>330234.148</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>26166.52013</v>
+        <v>29209.79346</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>22416.05509</v>
+        <v>26947.14025</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>27951.05442</v>
+        <v>31929.05759</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>24254.63837</v>
+        <v>27416.92859</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>26857.21249</v>
+        <v>30754.78714</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>27941.67385</v>
+        <v>34941.22478</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>34008.18163</v>
+        <v>42149.3144</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>36990.66996000001</v>
+        <v>46808.36179000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>43064.07954999999</v>
+        <v>59823.78616999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>99780.20411000002</v>
+        <v>117646.55668</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>116079.21839</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>139039.24582</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>306104.785</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4382.882369999999</v>
+        <v>6163.609010000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4240.069320000001</v>
+        <v>4411.61144</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3505.49818</v>
+        <v>4007.39612</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3519.02724</v>
+        <v>3996.90901</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2340.26628</v>
+        <v>2647.120620000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2250.91595</v>
+        <v>3793.70948</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3492.785919999999</v>
+        <v>4212.64521</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2754.399669999999</v>
+        <v>3609.90847</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2433.48228</v>
+        <v>3030.74173</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>7573.04064</v>
+        <v>8665.480250000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6157.708170000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9319.919890000003</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>12497.822</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1115.60382</v>
+        <v>1148.86408</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1380.74387</v>
+        <v>1459.83777</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1404.05068</v>
+        <v>1749.97374</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1807.13444</v>
+        <v>1930.28066</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1547.04327</v>
+        <v>2401.09399</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2112.90486</v>
+        <v>2677.74416</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3358.345929999999</v>
+        <v>4097.622679999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3385.11541</v>
+        <v>4509.47909</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6809.87232</v>
+        <v>8639.16497</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>8692.917949999999</v>
+        <v>9610.287489999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>8229.684360000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9436.093469999998</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>11631.541</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4346914.00317</v>
+        <v>4696861.41921</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5018287.859519999</v>
+        <v>5464110.790480001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6178327.843400001</v>
+        <v>6624269.370449999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6279324.717409999</v>
+        <v>6984045.73618</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6660696.11298</v>
+        <v>7342372.28614</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7182052.23325</v>
+        <v>8018954.436249999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7935651.39342</v>
+        <v>9031288.01066</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8875267.080600001</v>
+        <v>10063957.37203</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9255715.061680002</v>
+        <v>10738347.23619</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>17613653.42387</v>
+        <v>19423711.00982</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>18965904.31635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21943831.9654</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>23550278.854</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2857571.192580001</v>
+        <v>3037618.671</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3294473.52104</v>
+        <v>3527136.45764</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4086835.18216</v>
+        <v>4330175.88812</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4126304.210570001</v>
+        <v>4584509.71024</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4352579.99264</v>
+        <v>4733312.24548</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4654014.597929999</v>
+        <v>5127514.448310001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5193442.324940001</v>
+        <v>5838211.848440002</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5956776.79912</v>
+        <v>6656447.672839999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6165592.71238</v>
+        <v>7068619.803060001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>12235334.63104</v>
+        <v>13352242.79602</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13156069.38566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15105691.71559</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>15949577.039</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>253763.20517</v>
+        <v>281086.48135</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>279367.5357900001</v>
+        <v>306127.52331</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>325531.89776</v>
+        <v>355496.5275600001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>339263.7387199999</v>
+        <v>377736.30487</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>327395.2015</v>
+        <v>379748.4679900001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>351112.178</v>
+        <v>415213.02223</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>355469.0718</v>
+        <v>443498.7841</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>418373.00814</v>
+        <v>523301.6530999999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>439906.57495</v>
+        <v>572498.4487900001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1190891.13382</v>
+        <v>1337534.97812</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1338445.46165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1541316.52421</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1468476.111</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>907813.32577</v>
+        <v>947410.17789</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1058658.35914</v>
+        <v>1119486.65919</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1403245.67105</v>
+        <v>1467716.57741</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1294323.27074</v>
+        <v>1372863.54965</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1211058.02839</v>
+        <v>1307905.26983</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1326570.27601</v>
+        <v>1439254.7995</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1628414.0599</v>
+        <v>1772353.13363</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1905746.82218</v>
+        <v>2053760.1951</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1974353.56144</v>
+        <v>2162296.84945</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3650279.75588</v>
+        <v>4008913.10594</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3934516.110069999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4700493.43102</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5574415.752</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1685918.6919</v>
+        <v>1795385.68661</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1944067.37105</v>
+        <v>2085849.29651</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2346904.36225</v>
+        <v>2493825.66664</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2478765.978980001</v>
+        <v>2817652.71307</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2799179.10023</v>
+        <v>3025887.00626</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2955832.81451</v>
+        <v>3248862.0822</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3176920.398270001</v>
+        <v>3584862.842410001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3583457.4422</v>
+        <v>4021796.941370001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3708545.47597</v>
+        <v>4278593.823530001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7301040.894909999</v>
+        <v>7896961.563169999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7772161.36632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8735466.48126</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>8762716.551000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>10075.96974</v>
+        <v>13736.32515</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>12380.25506</v>
+        <v>15672.97863</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>11153.2511</v>
+        <v>13137.11651</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>13951.22213</v>
+        <v>16257.14265</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>14947.66252</v>
+        <v>19771.5014</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>20499.32941</v>
+        <v>24184.54438</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>32638.79497000001</v>
+        <v>37497.0883</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>49199.5266</v>
+        <v>57588.88327</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>42787.10002</v>
+        <v>55230.68128999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>93122.84642999999</v>
+        <v>108833.14879</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>110946.44762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>128415.2791</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>143968.625</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1489342.81059</v>
+        <v>1659242.74821</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1723814.33848</v>
+        <v>1936974.33284</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2091492.66124</v>
+        <v>2294093.48233</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2153020.50684</v>
+        <v>2399536.02594</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2308116.12034</v>
+        <v>2609060.04066</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2528037.635320001</v>
+        <v>2891439.98794</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2742209.06848</v>
+        <v>3193076.16222</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2918490.28148</v>
+        <v>3407509.69919</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3090122.3493</v>
+        <v>3669727.43313</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5378318.792830001</v>
+        <v>6071468.2138</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5809834.93069</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6838140.249810001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7600701.815</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1219632.66636</v>
+        <v>1507957.2023</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1356208.17308</v>
+        <v>1672339.80578</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1666785.31773</v>
+        <v>1982580.75572</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1769627.8057</v>
+        <v>2119576.39699</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1979846.19479</v>
+        <v>2516685.789859999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2223135.11495</v>
+        <v>2859683.85719</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2447931.59642</v>
+        <v>3165293.72672</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2680379.63441</v>
+        <v>3522429.957400001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2836001.62361</v>
+        <v>3792344.214040001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4620197.312879999</v>
+        <v>5721320.345000002</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5171870.791099999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7053669.875480001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6690835.821</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>15757.10254</v>
+        <v>18531.2721</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>14740.32448</v>
+        <v>18278.91396999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>21890.80474</v>
+        <v>25145.49069</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>29984.20029</v>
+        <v>33561.2242</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>32183.40219</v>
+        <v>38019.74723</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>39106.72064</v>
+        <v>45736.6187</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>48956.54578</v>
+        <v>59791.27158</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>45621.00349999999</v>
+        <v>62858.20611</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>41446.13778</v>
+        <v>55210.26991</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>81045.95847999999</v>
+        <v>96884.19939000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>90409.65623000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>113981.64701</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>113751.245</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>109464.89018</v>
+        <v>123838.20281</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>128688.41106</v>
+        <v>143271.07703</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>157356.5007</v>
+        <v>174256.30498</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>160262.18506</v>
+        <v>184904.82949</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>185234.15618</v>
+        <v>218400.68506</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>191727.23117</v>
+        <v>224692.18895</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>229533.68142</v>
+        <v>282077.0188900001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>237253.8476</v>
+        <v>287395.85523</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>238015.87919</v>
+        <v>283192.65474</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>446635.00508</v>
+        <v>493570.18611</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>517331.86967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>591000.90652</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>581210.576</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1094410.67364</v>
+        <v>1365587.72739</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1212779.437540001</v>
+        <v>1510789.81478</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1487538.01229</v>
+        <v>1783178.96005</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1579381.42035</v>
+        <v>1901110.3433</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1762428.63642</v>
+        <v>2260265.35757</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1992301.16314</v>
+        <v>2589255.049540001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2169441.36922</v>
+        <v>2823425.43625</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2397504.78331</v>
+        <v>3172175.896060001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2556539.606639999</v>
+        <v>3453941.289390001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4092516.34932</v>
+        <v>5130865.959500001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4564129.265200001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6348687.32195</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5995874</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>269710.14423</v>
+        <v>151285.54591</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>367606.1654</v>
+        <v>264634.52706</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>424707.3435099999</v>
+        <v>311512.72661</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>383392.7011399998</v>
+        <v>279959.6289499999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>328269.92555</v>
+        <v>92374.25079999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>304902.52037</v>
+        <v>31756.13074999997</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>294277.47206</v>
+        <v>27782.43549999998</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>238110.64707</v>
+        <v>-114920.25821</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>254120.7256899999</v>
+        <v>-122616.78091</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>758121.4799500001</v>
+        <v>350147.8688000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>637964.13959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-215529.6256700001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>909865.9939999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>46688.5696</v>
+        <v>1921505.76912</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>49927.81348</v>
+        <v>6472774.941910001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>67964.26956999999</v>
+        <v>3093143.6033</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>57155.71327</v>
+        <v>3074738.786770001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>78455.23221000002</v>
+        <v>5928651.216339999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>90645.46166999999</v>
+        <v>5056754.775180001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>112756.46262</v>
+        <v>8922073.201860001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>119705.56147</v>
+        <v>6248725.339919999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>145188.9166</v>
+        <v>8796958.829239998</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>589563.6926</v>
+        <v>24752449.45132999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>399193.7622299999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>15532356.09843</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>15628066.76</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1261.24059</v>
+        <v>422107.0701599999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1099.80342</v>
+        <v>641340.32834</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1696.51741</v>
+        <v>547960.21913</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2566.729499999999</v>
+        <v>724061.9030699999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2323.96923</v>
+        <v>1104543.4989</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3892.513039999999</v>
+        <v>1323221.05846</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4290.671840000001</v>
+        <v>1915979.99198</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3849.53906</v>
+        <v>1344711.21797</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2632.01808</v>
+        <v>3093339.89694</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>11890.45666</v>
+        <v>1851560.678</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>9973.587299999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3681563.9363</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2531644.912</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>946.4100999999999</v>
+        <v>347647.31339</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>592.5238900000001</v>
+        <v>415166.97575</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>784.74293</v>
+        <v>762318.21433</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>620.61898</v>
+        <v>571082.41742</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1131.88623</v>
+        <v>2646245.83954</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>938.31205</v>
+        <v>1216933.25227</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1189.48114</v>
+        <v>3878010.72977</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>694.6551299999999</v>
+        <v>1649196.09542</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>780.48087</v>
+        <v>1011056.50405</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>2660.85012</v>
+        <v>3286248.484399999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2534.37437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4570288.65263</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1914554.108</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>11010.79406</v>
+        <v>187599.77279</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9515.161689999999</v>
+        <v>176889.34945</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>11079.14213</v>
+        <v>466514.07406</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>12741.74099</v>
+        <v>550091.7452800001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>12445.74217</v>
+        <v>558717.06774</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>15951.11285</v>
+        <v>699465.66238</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17103.56211</v>
+        <v>861676.1520799999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>17049.41906</v>
+        <v>741393.1145</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>23217.34367999999</v>
+        <v>608158.0233400001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>72116.60244999999</v>
+        <v>1103518.6797</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>87124.95755000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1025815.73134</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>795004.613</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2205.48899</v>
+        <v>2703.72634</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2575.944359999999</v>
+        <v>3362.31231</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2504.88526</v>
+        <v>4010.45689</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2063.81057</v>
+        <v>2932.379029999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1850.53618</v>
+        <v>4050.20763</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>2727.53565</v>
+        <v>5488.360060000002</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1629.77638</v>
+        <v>4518.08815</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3006.25729</v>
+        <v>12023.14897</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>13020.93916</v>
+        <v>15959.79802</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6441.24582</v>
+        <v>20761.93743</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>6456.533719999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>18282.37988</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>25519.699</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1323.31388</v>
+        <v>169313.1656</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1950.91576</v>
+        <v>189309.14719</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2017.56823</v>
+        <v>228268.52518</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2358.51857</v>
+        <v>229625.92622</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4667.475020000001</v>
+        <v>261668.85467</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2487.92071</v>
+        <v>212239.47029</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2658.42415</v>
+        <v>204267.97645</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2106.43602</v>
+        <v>176690.93848</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2987.7639</v>
+        <v>228283.60977</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6608.306100000001</v>
+        <v>203118.46484</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>11823.06876</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>275463.2455</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>271603.45</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2499.10009</v>
+        <v>60054.65072</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1196.90148</v>
+        <v>4361012.482929999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1673.537240000001</v>
+        <v>245274.66954</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2029.96906</v>
+        <v>318011.52775</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2211.76879</v>
+        <v>61699.62188999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5485.485529999999</v>
+        <v>133791.039</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3459.466149999999</v>
+        <v>161583.38774</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2396.27876</v>
+        <v>77608.53738999997</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3001.485729999999</v>
+        <v>1112556.311179999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>27088.70696</v>
+        <v>591427.9326700002</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>12214.39501</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>316765.20218</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>632940.969</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>17276.05697</v>
+        <v>643159.89131</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>21690.94925000001</v>
+        <v>588521.2165400001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>30878.67279</v>
+        <v>537862.2809199999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>16342.18883</v>
+        <v>576807.87668</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>34521.51810999999</v>
+        <v>1088571.65087</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>32039.52953</v>
+        <v>1293447.2374</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>55487.49115000001</v>
+        <v>1657768.26034</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>56215.2378</v>
+        <v>2048993.32498</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>60737.10293999999</v>
+        <v>2374773.70369</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>386343.34984</v>
+        <v>8558747.660610002</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>180727.83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4901050.264930001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8100510.534</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>220.42571</v>
+        <v>1661.24434</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>115.60182</v>
+        <v>880.3406699999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>400.56555</v>
+        <v>850.6326100000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>528.06416</v>
+        <v>1032.05682</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>114.18148</v>
+        <v>351.55265</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>300.64546</v>
+        <v>2107.81774</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>276.13082</v>
+        <v>1325.28788</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>360.10984</v>
+        <v>1271.06093</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>223.4667</v>
+        <v>555.7733300000001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>618.9967899999999</v>
+        <v>914.43723</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>524.8600300000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>138282.05875</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>679072.074</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>77.38971999999998</v>
+        <v>89.70811999999999</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>177.40759</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>178.55416</v>
+        <v>430.7187500000001</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>32.13321</v>
+        <v>251.35129</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>22.22726</v>
+        <v>30.92435</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>65.74274</v>
+        <v>579.29024</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>72.93733</v>
+        <v>289.75036</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>62.30218999999999</v>
+        <v>265.74983</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>63.91328</v>
+        <v>196.81764</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>317.0428099999999</v>
+        <v>636.85643</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>610.77987</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>933.93427</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>2033.041</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>9868.349490000002</v>
+        <v>87169.22635</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>11012.60422</v>
+        <v>96115.38113999998</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>16750.08387</v>
+        <v>299653.8118900001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>17871.9394</v>
+        <v>100841.60321</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>19165.92774</v>
+        <v>202771.9981</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>26756.66411</v>
+        <v>169481.58734</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>26588.52154999999</v>
+        <v>236653.57711</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>33965.32632</v>
+        <v>196572.15145</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>38524.40225999999</v>
+        <v>352078.39128</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>75478.13505</v>
+        <v>9135514.320019998</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>87203.37561999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>603910.69265</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>675183.36</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>31453.6286</v>
+        <v>588922.8389099999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>34110.74698</v>
+        <v>516099.93511</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>51590.94762000001</v>
+        <v>608170.9328899999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>39601.44926000001</v>
+        <v>483272.5350699999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>52400.25124</v>
+        <v>2062575.84055</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>56467.64255999999</v>
+        <v>1353721.07296</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>77436.82185000001</v>
+        <v>2369141.64194</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>86373.40937999998</v>
+        <v>2645373.07357</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>106313.05831</v>
+        <v>2725565.684309999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>603406.0590099999</v>
+        <v>25984737.81984</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>235672.5695400001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8025714.799419999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>13862120.236</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1655.60019</v>
+        <v>2790.85627</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2241.71015</v>
+        <v>3162.25796</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2969.78695</v>
+        <v>5429.191019999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1918.18356</v>
+        <v>3857.23076</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2532.912519999999</v>
+        <v>5018.047149999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2860.212859999999</v>
+        <v>4714.33048</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4433.221469999999</v>
+        <v>6196.809869999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2880.265309999999</v>
+        <v>4342.591479999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>12712.94978</v>
+        <v>13760.07539</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>22493.64544</v>
+        <v>24913.5988</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>8325.185619999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>10452.14242</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>285262.246</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6272.368909999998</v>
+        <v>50652.33852</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4624.65729</v>
+        <v>10153.60793</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>6047.18941</v>
+        <v>9441.880700000002</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5229.14495</v>
+        <v>20701.24804</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>8143.38414</v>
+        <v>45343.44146</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8946.864020000001</v>
+        <v>25501.18045</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12074.71926</v>
+        <v>32626.15735</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11372.41816</v>
+        <v>91127.29742999998</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>8026.970639999999</v>
+        <v>45449.35786</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>25117.19857</v>
+        <v>62806.703</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>32732.78589</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>70234.62069</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>70044.307</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>475.33181</v>
+        <v>15317.47283</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>269.03764</v>
+        <v>45081.39193000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>802.98852</v>
+        <v>28756.20425</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>6434.26571</v>
+        <v>20692.261</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2035.73851</v>
+        <v>101578.7557</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>456.84761</v>
+        <v>71231.18737</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>601.4245799999999</v>
+        <v>19738.082</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5347.74692</v>
+        <v>106769.76204</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2953.01042</v>
+        <v>22031.77203</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>147099.84893</v>
+        <v>234358.66778</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>3180.28963</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>57259.54242000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>43950.188</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>16946.43315</v>
+        <v>487049.27727</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>20781.35783</v>
+        <v>434261.0616299999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>25624.18600000001</v>
+        <v>469521.95304</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>18558.98084</v>
+        <v>401500.9460599999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>30618.68314000001</v>
+        <v>1776103.91508</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>29902.32237</v>
+        <v>1188713.52863</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>48235.22702000001</v>
+        <v>1786055.73677</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>48894.67718</v>
+        <v>2379956.0772</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>61161.19927</v>
+        <v>2568656.72025</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>364637.9338699999</v>
+        <v>7965111.007150002</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>163473.5443299999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7743011.678839999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13039283.165</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>73.47148</v>
+        <v>2639.14788</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>62.31328999999999</v>
+        <v>633.12767</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>355.55171</v>
+        <v>1902.32015</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>453.38055</v>
+        <v>859.2505500000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>124.23601</v>
+        <v>1471.6923</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>45.47678</v>
+        <v>2133.74191</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>147.93711</v>
+        <v>2296.86355</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>168.06562</v>
+        <v>676.57701</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>67.03147</v>
+        <v>833.70318</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>381.0545</v>
+        <v>8865.833659999998</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>155.39412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>20301.18916</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>32483.648</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>64.51576</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>58.04796</v>
+        <v>471.6821</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>223.24575</v>
+        <v>837.6061799999999</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>25.47516</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>42.01461</v>
+        <v>42.01461999999999</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>30.19795</v>
+        <v>286.29028</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>43.2677</v>
+        <v>282803.54761</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>3.97397</v>
+        <v>87.99142999999999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>29.68818</v>
+        <v>31.05724</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>179.03565</v>
+        <v>179.54199</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>26.69661</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1301.09</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5965.907300000001</v>
+        <v>30409.23038</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>6073.62282</v>
+        <v>22336.80589</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>15567.99928</v>
+        <v>92281.77755</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6982.01849</v>
+        <v>35636.1235</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8903.282310000001</v>
+        <v>133017.97424</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>14225.72097</v>
+        <v>61140.81384</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>11901.02471</v>
+        <v>239424.44479</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>17706.26222</v>
+        <v>62412.77697999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>21362.20855</v>
+        <v>74802.99835999998</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>43497.34204999999</v>
+        <v>17688502.46746</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>27778.67334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>124428.92928</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>389795.592</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>33619.97325</v>
+        <v>568709.1974799999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>29763.01163</v>
+        <v>583081.481</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>36876.86376000001</v>
+        <v>652203.7079400001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>43056.96565</v>
+        <v>510884.12937</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>42873.12658</v>
+        <v>1668400.18087</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>47054.47441999999</v>
+        <v>1391999.88908</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>52965.89021999999</v>
+        <v>1696737.01373</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>60158.27945999999</v>
+        <v>2518165.46556</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>65270.77914</v>
+        <v>2649563.90884</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>181799.33823</v>
+        <v>4898540.892680001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>203846.11396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5215160.611629999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3875615.147</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>32002.47467</v>
+        <v>268389.7411700001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>28387.67208</v>
+        <v>325007.60159</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>34892.05831</v>
+        <v>558478.17466</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>41375.05311000001</v>
+        <v>248324.57824</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>40202.93855000001</v>
+        <v>412652.1135399999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>45009.76396000002</v>
+        <v>438047.7524099999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>49714.45402000001</v>
+        <v>552709.6157900001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>56704.84445000001</v>
+        <v>811823.99888</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>61400.43943000001</v>
+        <v>2323236.51645</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>172121.26862</v>
+        <v>3645614.0796</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>195461.48566</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2666420.38983</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1922101.09</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1617.49858</v>
+        <v>300319.4563099999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1375.33955</v>
+        <v>258073.87941</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1984.80545</v>
+        <v>93725.53328000002</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1681.91254</v>
+        <v>262559.55113</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2670.18803</v>
+        <v>1255748.06733</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2044.71046</v>
+        <v>953952.1366699999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3251.4362</v>
+        <v>1144027.39794</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3453.43501</v>
+        <v>1706341.46668</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3870.33971</v>
+        <v>326327.39239</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>9678.069609999999</v>
+        <v>1252926.81308</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>8384.6283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2548740.2218</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1953514.057</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>251325.11198</v>
+        <v>915159.2786399999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>353660.22027</v>
+        <v>5638228.052859999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>404203.8017000001</v>
+        <v>2144281.68908</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>357889.9995</v>
+        <v>2360541.75128</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>311451.77994</v>
+        <v>2290049.44572</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>292025.86506</v>
+        <v>2342789.94389</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>276631.22261</v>
+        <v>4883976.98169</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>211284.5197</v>
+        <v>970266.54258</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>227725.80484</v>
+        <v>3299212.45518</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>562479.7753099999</v>
+        <v>-5780681.392390001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>597639.2183200001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2075951.061710002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1199802.629</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>34602.7982</v>
+        <v>116735.95918</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>44978.85389</v>
+        <v>165037.37959</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>41442.64595999999</v>
+        <v>95360.20452999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>49580.52798000001</v>
+        <v>126843.53781</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>53899.30194999999</v>
+        <v>897661.0180099998</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>63376.26562999999</v>
+        <v>257418.43248</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>75816.15040000001</v>
+        <v>244532.40179</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>98316.49786</v>
+        <v>297585.06056</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>103903.90571</v>
+        <v>384126.66864</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>182062.54113</v>
+        <v>1496164.21037</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>239718.92273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1013712.21315</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1019990.449</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>753.5010699999999</v>
+        <v>5506.19652</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>905.7495899999999</v>
+        <v>7734.8104</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1349.97438</v>
+        <v>1768.50508</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1197.91001</v>
+        <v>3042.88204</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>981.87157</v>
+        <v>5595.66146</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>999.88836</v>
+        <v>3202.30738</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>932.1082400000001</v>
+        <v>2166.00745</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>818.51035</v>
+        <v>2008.57157</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1847.17488</v>
+        <v>6527.167939999998</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3932.33637</v>
+        <v>16843.9216</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2245.96918</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4765.174910000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>64593.434</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>33849.29712999999</v>
+        <v>111229.76266</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>44073.1043</v>
+        <v>157302.56919</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>40092.67157999999</v>
+        <v>93591.69945</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>48382.61797000001</v>
+        <v>123800.65577</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>52917.43038</v>
+        <v>892065.3565499999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>62376.37726999999</v>
+        <v>254216.1251</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>74884.04216000001</v>
+        <v>242366.39434</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>97497.98751000001</v>
+        <v>295576.48899</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>102056.73083</v>
+        <v>377599.5007</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>178130.20476</v>
+        <v>1479320.28877</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>237472.95355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1008947.03824</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>955397.015</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>42870.34228</v>
+        <v>87269.91938000002</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>81907.18396000001</v>
+        <v>375236.7184899999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>630496.1628400001</v>
+        <v>867670.7217100002</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>67840.10598000001</v>
+        <v>123414.06956</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>68695.98092999999</v>
+        <v>351350.99467</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>357666.1473999999</v>
+        <v>594667.5721999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>84205.43443000002</v>
+        <v>406936.5724800001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>501008.7698900001</v>
+        <v>973482.00449</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>136121.15427</v>
+        <v>381499.6784699999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1135067.78461</v>
+        <v>2290579.39938</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>239161.22079</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1376272.19068</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1028846.909</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>570.13877</v>
+        <v>1197.02015</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1862.91348</v>
+        <v>2224.51403</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1029.75706</v>
+        <v>1446.30484</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1323.2031</v>
+        <v>2592.36666</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>670.9337800000001</v>
+        <v>1982.90715</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>919.7280599999999</v>
+        <v>2852.47307</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1082.08706</v>
+        <v>2994.34818</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1465.96771</v>
+        <v>2737.02292</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1365.32573</v>
+        <v>2719.48241</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2362.9509</v>
+        <v>4087.342900000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2591.05076</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3178.65178</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9672.092000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5106.509089999999</v>
+        <v>14477.61312</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5406.254959999999</v>
+        <v>9639.721720000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7256.200439999999</v>
+        <v>15641.15317</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5439.009649999999</v>
+        <v>8193.382720000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5460.25205</v>
+        <v>9944.218570000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6231.95068</v>
+        <v>16017.57525</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6204.068920000001</v>
+        <v>11033.37432</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6624.646229999999</v>
+        <v>27727.29081</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4988.884239999999</v>
+        <v>14486.16951</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12746.04616</v>
+        <v>57719.80407</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9328.303820000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14522.76977</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>65176.622</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>37193.69442</v>
+        <v>71595.28611000002</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>74638.01552</v>
+        <v>363372.48274</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>622210.20534</v>
+        <v>850583.2637</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>61077.89323</v>
+        <v>112628.32018</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>62564.79510000002</v>
+        <v>339423.8689499999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>350514.46866</v>
+        <v>575797.52388</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>76919.27845</v>
+        <v>392908.84998</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>492918.15595</v>
+        <v>943017.69076</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>129766.9443</v>
+        <v>364294.02655</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1119958.78755</v>
+        <v>2228772.25241</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>227241.86621</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1358570.76913</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>953998.1949999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>243057.5679</v>
+        <v>944625.3184399999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>316731.8902</v>
+        <v>5428028.71396</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-184849.71518</v>
+        <v>1371971.1719</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>339630.4214999999</v>
+        <v>2363971.219529999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>296655.1009600001</v>
+        <v>2836359.46906</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-2264.016709999996</v>
+        <v>2005540.804169999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>268241.93858</v>
+        <v>4721572.811</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-191407.75233</v>
+        <v>294369.59865</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>195508.55628</v>
+        <v>3301839.445349999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-390525.4681699999</v>
+        <v>-6575096.581399999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>598196.9202599998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1713391.08418</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1208659.089</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>73036.64885000003</v>
+        <v>116052.4066</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>84974.90625999999</v>
+        <v>962964.1232800001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>105000.9655</v>
+        <v>210935.32341</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>106160.38251</v>
+        <v>267497.53696</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>111116.50723</v>
+        <v>253298.91716</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>117034.32812</v>
+        <v>275784.96729</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>121726.43818</v>
+        <v>321335.28333</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>127365.57916</v>
+        <v>304903.58335</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>132160.52653</v>
+        <v>302622.8855900001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>295401.49035</v>
+        <v>684021.37875</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>311849.91086</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>515080.1438099999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>732604.7340000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>170020.91905</v>
+        <v>828572.9118400001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>231756.98394</v>
+        <v>4465064.59068</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-289850.68068</v>
+        <v>1161035.84849</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>233470.03899</v>
+        <v>2096473.682570001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>185538.59373</v>
+        <v>2583060.5519</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-119298.34483</v>
+        <v>1729755.83688</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>146515.5004</v>
+        <v>4400237.52767</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-318773.33149</v>
+        <v>-10533.98469999996</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>63348.02974999999</v>
+        <v>2999216.559759999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-685926.9585199999</v>
+        <v>-7259117.960149999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>286347.0094</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1198310.94037</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1941263.823</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>25574</v>
+        <v>26828</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>28384</v>
+        <v>29891</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>29928</v>
+        <v>31476</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>30445</v>
+        <v>32330</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>32046</v>
+        <v>34446</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>33359</v>
+        <v>36242</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>35065</v>
+        <v>38732</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>36441</v>
+        <v>40595</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>38234</v>
+        <v>42936</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>44989</v>
+        <v>49046</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>46862</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>52821</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>57211</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>